--- a/reserch/実験管理表.xlsx
+++ b/reserch/実験管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72AC3B-964B-415F-8B90-DEA2891FB86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9805F87-88EE-45F6-8A30-7717FF8FBAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10971" yWindow="0" windowWidth="10972" windowHeight="11743" activeTab="1" xr2:uid="{84757DD8-B0AF-4135-A504-8C0CB4424D9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{84757DD8-B0AF-4135-A504-8C0CB4424D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理表" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="124">
   <si>
     <t>課題</t>
     <rPh sb="0" eb="2">
@@ -1067,142 +1067,180 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>服用情報を追加</t>
+    <rPh sb="0" eb="2">
+      <t>フクヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/fill-updrs4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/medication-feat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精度向上</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無理！</t>
+    <rPh sb="0" eb="2">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NPXの[6,12,24]カ月前のリフト値を特徴量として追加</t>
+    <rPh sb="14" eb="15">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/create-udpr-score-feats?scriptVersionId=128373388</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test側にラグデータが取れないので効果がでていないのでは？</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>discussionで挙がっているたんぱく質候補については、現在以前のlift値を特徴量として採用する。</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/clip-54#4-Accuracy-evaluation-&amp;-Parameter-tuning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最適化の際にudpr4のvisit_monを54でclipさせた</t>
+    <rPh sb="0" eb="3">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testデータにudpr4の予測データがないから変化なし？</t>
+    <rPh sb="14" eb="16">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/minimize-method/notebook#4-Accuracy-evaluation-&amp;-Parameter-tuning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x0の初期値を変更</t>
+    <rPh sb="3" eb="6">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精度向上しなかった</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>対応中</t>
     <rPh sb="0" eb="3">
       <t>タイオウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>服用情報を追加</t>
-    <rPh sb="0" eb="2">
-      <t>フクヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/takuyatokumoto/fill-updrs4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/takuyatokumoto/medication-feat</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精度向上</t>
-    <rPh sb="0" eb="2">
-      <t>セイド</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無理！</t>
-    <rPh sb="0" eb="2">
-      <t>ムリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NPXの[6,12,24]カ月前のリフト値を特徴量として追加</t>
-    <rPh sb="14" eb="15">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>トクチョウリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/takuyatokumoto/create-udpr-score-feats?scriptVersionId=128373388</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test側にラグデータが取れないので効果がでていないのでは？</t>
-    <rPh sb="4" eb="5">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>discussionで挙がっているたんぱく質候補については、現在以前のlift値を特徴量として採用する。</t>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>トクチョウリョウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/takuyatokumoto/clip-54#4-Accuracy-evaluation-&amp;-Parameter-tuning</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最適化の際にudpr4のvisit_monを54でclipさせた</t>
-    <rPh sb="0" eb="3">
-      <t>サイテキカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>testデータにudpr4の予測データがないから変化なし？</t>
-    <rPh sb="14" eb="16">
-      <t>ヨソク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1652,10 +1690,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$F$13:$F$18</c:f>
+              <c:f>提出ファイル管理表!$F$13:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>66.14</c:v>
                 </c:pt>
@@ -1671,15 +1709,18 @@
                 <c:pt idx="4">
                   <c:v>66.14</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$J$13:$J$18</c:f>
+              <c:f>提出ファイル管理表!$J$13:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56.2</c:v>
                 </c:pt>
@@ -1691,6 +1732,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,10 +2015,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$G$13:$G$18</c:f>
+              <c:f>提出ファイル管理表!$G$13:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>36.39</c:v>
                 </c:pt>
@@ -1987,15 +2034,18 @@
                 <c:pt idx="4">
                   <c:v>36.39</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$J$13:$J$18</c:f>
+              <c:f>提出ファイル管理表!$J$13:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56.2</c:v>
                 </c:pt>
@@ -2007,6 +2057,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,10 +2339,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$E$13:$E$18</c:f>
+              <c:f>提出ファイル管理表!$E$13:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>53.69</c:v>
                 </c:pt>
@@ -2302,15 +2358,18 @@
                 <c:pt idx="4">
                   <c:v>53.6</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$J$13:$J$18</c:f>
+              <c:f>提出ファイル管理表!$J$13:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56.2</c:v>
                 </c:pt>
@@ -2322,6 +2381,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,10 +2664,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$H$13:$H$18</c:f>
+              <c:f>提出ファイル管理表!$H$13:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42.22</c:v>
                 </c:pt>
@@ -2618,15 +2683,18 @@
                 <c:pt idx="4">
                   <c:v>42.22</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$J$13:$J$18</c:f>
+              <c:f>提出ファイル管理表!$J$13:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56.2</c:v>
                 </c:pt>
@@ -2638,6 +2706,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,10 +2989,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$I$13:$I$18</c:f>
+              <c:f>提出ファイル管理表!$I$13:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>76.760000000000005</c:v>
                 </c:pt>
@@ -2934,15 +3008,18 @@
                 <c:pt idx="4">
                   <c:v>76.760000000000005</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.760000000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>提出ファイル管理表!$J$13:$J$18</c:f>
+              <c:f>提出ファイル管理表!$J$13:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56.2</c:v>
                 </c:pt>
@@ -2954,6 +3031,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,13 +5997,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>121084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5950,13 +6033,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>113170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>618914</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5986,13 +6069,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3957</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>5820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>395844</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>80680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6022,13 +6105,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>69416</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6058,13 +6141,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>618914</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>77330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6392,25 +6475,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5991438-87E0-428F-BAA5-5EB3814E03CB}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="33.2109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="2.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="33.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="18.55" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
@@ -6439,7 +6522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>1</v>
@@ -6460,7 +6543,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="3">
         <f>ROW()-5</f>
         <v>1</v>
@@ -6494,7 +6577,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="3">
         <f t="shared" ref="C7:C14" si="0">ROW()-5</f>
         <v>2</v>
@@ -6518,7 +6601,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6547,10 +6630,13 @@
         <v>78</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6577,10 +6663,13 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6612,7 +6701,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6629,12 +6718,21 @@
         <v>94</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6662,9 +6760,14 @@
         <v>75</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:14" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6692,9 +6795,14 @@
         <v>75</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="14" spans="2:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:14" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6720,9 +6828,14 @@
         <v>75</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="3">
         <f t="shared" ref="C15:C36" si="1">ROW()-5</f>
         <v>10</v>
@@ -6753,10 +6866,10 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6785,10 +6898,10 @@
         <v>95</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6815,7 +6928,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6840,7 +6953,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6867,7 +6980,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="3:13" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="20" spans="3:13" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6881,7 +6994,7 @@
         <v>57</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>79</v>
@@ -6891,10 +7004,10 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6926,7 +7039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6950,7 +7063,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="3:13" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="23" spans="3:13" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6974,7 +7087,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="3:13" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="3:13" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7002,7 +7115,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="3:13" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="25" spans="3:13" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7032,9 +7145,11 @@
         <v>78</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7050,7 +7165,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7066,7 +7181,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7082,7 +7197,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7098,7 +7213,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7114,7 +7229,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7130,7 +7245,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7146,7 +7261,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7162,7 +7277,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7178,7 +7293,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7194,7 +7309,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.65">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7219,31 +7334,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544779D4-170A-4303-A53D-480FB047B40A}">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="2" width="3.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.0703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="17.640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.08203125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="18.55" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
@@ -7267,7 +7382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18.55" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="27" t="s">
@@ -7283,7 +7398,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:14" ht="18.55" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="28"/>
@@ -7299,7 +7414,7 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
@@ -7321,7 +7436,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="31">
         <f>ROW()-7</f>
         <v>1</v>
@@ -7345,9 +7460,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="31">
-        <f t="shared" ref="C9:C18" si="0">ROW()-7</f>
+        <f t="shared" ref="C9:C25" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="D9" s="32">
@@ -7373,7 +7488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7403,7 +7518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7435,7 +7550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="29"/>
       <c r="C12" s="31">
         <f t="shared" si="0"/>
@@ -7472,7 +7587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7508,7 +7623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7535,16 +7650,16 @@
         <v>56.1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7571,7 +7686,7 @@
         <v>56.6</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>89</v>
@@ -7580,7 +7695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7607,19 +7722,19 @@
         <v>56.2</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.65">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7642,78 +7757,203 @@
       <c r="I17" s="3">
         <v>76.760000000000005</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>56.2</v>
+      </c>
       <c r="K17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.65">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="1" t="s">
+      <c r="D18" s="10">
+        <v>45050</v>
+      </c>
+      <c r="E18" s="3">
+        <v>53.62</v>
+      </c>
+      <c r="F18" s="3">
+        <v>66.14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>36.39</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42.22</v>
+      </c>
+      <c r="I18" s="3">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="J18" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.65">
-      <c r="N19" s="1" t="s">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.65">
-      <c r="C20" s="1" t="s">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7731,7 +7971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7744,7 +7984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reserch/実験管理表.xlsx
+++ b/reserch/実験管理表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9805F87-88EE-45F6-8A30-7717FF8FBAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C37AA8-65F4-4CD5-9458-38E9FA8AFA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{84757DD8-B0AF-4135-A504-8C0CB4424D9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{84757DD8-B0AF-4135-A504-8C0CB4424D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理表" sheetId="1" r:id="rId1"/>
     <sheet name="提出ファイル管理表" sheetId="2" r:id="rId2"/>
-    <sheet name="学習モデル構成" sheetId="3" r:id="rId3"/>
-    <sheet name="DFD" sheetId="4" r:id="rId4"/>
+    <sheet name="アンサンブル条件" sheetId="5" r:id="rId3"/>
+    <sheet name="学習モデル構成" sheetId="3" r:id="rId4"/>
+    <sheet name="DFD" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="176">
   <si>
     <t>課題</t>
     <rPh sb="0" eb="2">
@@ -519,13 +520,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モデルの追加</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>他の回帰モデルと組み合わせてアンサンブルすべきでは？</t>
     <rPh sb="0" eb="1">
       <t>ホカ</t>
@@ -1242,6 +1236,409 @@
     <rPh sb="0" eb="3">
       <t>タイオウチュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/proteinnpx-group-w-model?scriptVersionId=129028386</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストデータには服用情報入っていない可能性あり</t>
+    <rPh sb="8" eb="12">
+      <t>フクヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>あるたんぱく質の存在量別に最適化</t>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ソンザイリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるたんぱく質の存在量別に最適化＋木モデル予測の組み合わせ</t>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ソンザイリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/protein-trend-w-model#3-Model-Predict</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/protein-trend-w-model-002?scriptVersionId=129166184</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるたんぱく質の存在量別に最適化＋optunaでチューニング後の木モデル予測の組み合わせ</t>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ソンザイリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>比率</t>
+    <rPh sb="0" eb="2">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>target変数の選択</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼最適化 - SMAPE_p1</t>
+    <rPh sb="1" eb="4">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼勾配boost - SMAPE</t>
+    <rPh sb="1" eb="3">
+      <t>コウバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼勾配boost - MAE</t>
+    <rPh sb="1" eb="3">
+      <t>コウバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇全指標合算</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンシヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇利用した目的変数のみ評価</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精度変化なし</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコアアンサンブルの比率は何が最適か？</t>
+    <rPh sb="10" eb="12">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木モデルなどは予測対象の絞り込みを行っているがそれは最適か？</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヨソクタイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他回帰モデルの追加</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加してアンサンブルさせる</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色々試してみるしかない(CVちゃんとできるようにしておくべきだった。。）</t>
+    <rPh sb="0" eb="2">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未対応</t>
+    <rPh sb="0" eb="3">
+      <t>ミタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>final base code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectkbestの特徴量採用数を一部最適化</t>
+    <rPh sb="12" eb="15">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サイヨウスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#21で試す</t>
+    <rPh sb="4" eb="5">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アンサンブルする予測対象</t>
+    <rPh sb="8" eb="10">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updrs_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plus_0</t>
+  </si>
+  <si>
+    <t>plus_6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plus_12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plus_24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updrs_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updrs_3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LB score</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/enseble-ratio?scriptVersionId=129402388</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アンサンブル採用率条件</t>
+    <rPh sb="6" eb="8">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/takuyatokumoto/enseble-ratio/notebook</t>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v6</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1249,7 +1646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,8 +1694,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,8 +1732,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1458,13 +1879,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1568,6 +2020,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,6 +2233,18 @@
                 <c:pt idx="5">
                   <c:v>66.14</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1738,6 +2271,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,6 +2585,18 @@
                 <c:pt idx="5">
                   <c:v>36.39</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2063,6 +2623,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,7 +2883,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8360004817385771E-2"/>
+          <c:y val="0.15387315348002642"/>
+          <c:w val="0.85542007450275737"/>
+          <c:h val="0.73482356060972176"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2387,6 +2972,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,6 +3286,18 @@
                 <c:pt idx="5">
                   <c:v>42.22</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.49</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2712,6 +3324,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,6 +3638,18 @@
                 <c:pt idx="5">
                   <c:v>76.760000000000005</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3037,6 +3676,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5995,16 +6649,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>121084</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96117</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6031,16 +6685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>113170</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>618914</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617554</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6067,16 +6721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3957</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5820</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>458312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>395844</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>80680</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104156</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>102080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6103,16 +6757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>69416</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96117</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>82652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6139,16 +6793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>618914</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>77330</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617554</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>94648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6475,8 +7129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5991438-87E0-428F-BAA5-5EB3814E03CB}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A4" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -6519,7 +7173,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -6534,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -6555,7 +7209,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>51</v>
@@ -6564,18 +7218,20 @@
         <v>35</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="3"/>
+      <c r="L6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="3">
@@ -6588,18 +7244,20 @@
       <c r="G7" s="19"/>
       <c r="H7" s="17"/>
       <c r="I7" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="3">
@@ -6609,7 +7267,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>51</v>
@@ -6618,22 +7276,22 @@
         <v>52</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -6644,7 +7302,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>51</v>
@@ -6656,17 +7314,19 @@
         <v>43</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
@@ -6681,25 +7341,32 @@
         <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3">
@@ -6709,27 +7376,29 @@
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
@@ -6742,29 +7411,31 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="45" x14ac:dyDescent="0.55000000000000004">
@@ -6777,29 +7448,31 @@
         <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="45" x14ac:dyDescent="0.55000000000000004">
@@ -6810,7 +7483,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>51</v>
@@ -6822,17 +7495,19 @@
         <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
@@ -6844,7 +7519,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>40</v>
@@ -6853,20 +7528,22 @@
         <v>51</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.55000000000000004">
@@ -6888,20 +7565,22 @@
         <v>31</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6914,21 +7593,25 @@
         <v>38</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>53</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6939,21 +7622,25 @@
         <v>37</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6966,21 +7653,25 @@
         <v>33</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="20" spans="3:13" ht="45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:14" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6991,23 +7682,25 @@
         <v>41</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7017,7 +7710,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>51</v>
@@ -7029,41 +7722,50 @@
         <v>49</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="23" spans="3:13" ht="45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:14" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7072,116 +7774,162 @@
       <c r="E23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="3:13" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="J24" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="25" spans="3:13" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>123</v>
+      <c r="K25" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="39"/>
+      <c r="M26" s="41" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:14" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="L27" s="39"/>
+      <c r="M27" s="41" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7197,7 +7945,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7213,7 +7961,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7229,7 +7977,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7245,7 +7993,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7334,17 +8082,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544779D4-170A-4303-A53D-480FB047B40A}">
-  <dimension ref="B2:N27"/>
+  <dimension ref="B2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="3.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.08203125" style="1" customWidth="1"/>
     <col min="8" max="11" width="9.1640625" style="1"/>
@@ -7386,7 +8134,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>32</v>
@@ -7403,11 +8151,11 @@
       <c r="D6" s="23"/>
       <c r="E6" s="28"/>
       <c r="F6" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="23"/>
@@ -7418,7 +8166,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>25</v>
@@ -7509,10 +8257,10 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>21</v>
@@ -7541,10 +8289,10 @@
         <v>56.7</v>
       </c>
       <c r="K11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>21</v>
@@ -7578,10 +8326,10 @@
         <v>56.6</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>21</v>
@@ -7614,10 +8362,10 @@
         <v>56.2</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="30" t="s">
         <v>103</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>104</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>21</v>
@@ -7650,10 +8398,10 @@
         <v>56.1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>21</v>
@@ -7686,10 +8434,10 @@
         <v>56.6</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>21</v>
@@ -7722,13 +8470,13 @@
         <v>56.2</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>21</v>
@@ -7761,13 +8509,13 @@
         <v>56.2</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>21</v>
@@ -7800,10 +8548,13 @@
         <v>56.4</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>119</v>
+      <c r="N18" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
@@ -7811,75 +8562,158 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>45055</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="J19" s="3">
+        <v>56</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>45055</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="F20" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="H20" s="3">
+        <v>41.79</v>
+      </c>
+      <c r="I20" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>56</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>45055</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="F21" s="3">
+        <v>55.52</v>
+      </c>
+      <c r="G21" s="3">
+        <v>30.44</v>
+      </c>
+      <c r="H21" s="3">
+        <v>41.77</v>
+      </c>
+      <c r="I21" s="3">
+        <v>63.94</v>
+      </c>
+      <c r="J21" s="3">
+        <v>56</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>45059</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="F22" s="3">
+        <v>55.52</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30.44</v>
+      </c>
+      <c r="H22" s="3">
+        <v>41.77</v>
+      </c>
+      <c r="I22" s="3">
+        <v>63.94</v>
+      </c>
+      <c r="J22" s="3">
+        <v>56</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>45059</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="F23" s="3">
+        <v>54.12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>38.49</v>
+      </c>
+      <c r="I23" s="3">
+        <v>62.54</v>
+      </c>
+      <c r="J23" s="3">
+        <v>56</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="3">
@@ -7895,6 +8729,9 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="3">
@@ -7957,6 +8794,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7966,6 +8827,867 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0118F807-986C-4272-8F4D-3F0433FE20F0}">
+  <dimension ref="B2:AE33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB2" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="50"/>
+      <c r="C3" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="T3" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="53"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="51"/>
+      <c r="C4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="54"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="47"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="46"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="46"/>
+    </row>
+    <row r="33" spans="31:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86131749-A918-4926-B9C8-DF6690095AAA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7978,7 +9700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E293F9-D369-4DA0-8121-4A08F462BBD0}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/reserch/実験管理表.xlsx
+++ b/reserch/実験管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C37AA8-65F4-4CD5-9458-38E9FA8AFA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4875B78-9382-4537-BBA3-610C19BD26A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{84757DD8-B0AF-4135-A504-8C0CB4424D9F}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{84757DD8-B0AF-4135-A504-8C0CB4424D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理表" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="179">
   <si>
     <t>課題</t>
     <rPh sb="0" eb="2">
@@ -1639,6 +1639,18 @@
   </si>
   <si>
     <t>v6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v10</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1916,7 +1928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2046,49 +2058,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8830,8 +8821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0118F807-986C-4272-8F4D-3F0433FE20F0}">
   <dimension ref="B2:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -8840,99 +8831,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="55" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="48" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" s="48" t="s">
+      <c r="AA2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" s="52" t="s">
+      <c r="AB2" s="45" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="50"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="43" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="43" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="48" t="s">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="W3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="X3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Y3" s="49" t="s">
+      <c r="Y3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="53"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="46"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="51"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
         <v>152</v>
       </c>
@@ -8982,15 +8973,15 @@
         <v>155</v>
       </c>
       <c r="S4" s="23"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="54"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="47"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
@@ -9287,9 +9278,15 @@
       <c r="Y10" s="3">
         <v>0.02</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3"/>
@@ -9309,16 +9306,36 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="S11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3"/>
@@ -9338,15 +9355,33 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+      <c r="S12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
@@ -9669,16 +9704,16 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE30" s="47"/>
+      <c r="AE30" s="44"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE31" s="46"/>
+      <c r="AE31" s="43"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE32" s="46"/>
+      <c r="AE32" s="43"/>
     </row>
     <row r="33" spans="31:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE33" s="46"/>
+      <c r="AE33" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9710,5 +9745,6 @@
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>